--- a/datenRF4/SFU/i = 73,96 - Abtriebswelle 14 - Geber AV Y2/L3_73,96_14_AVY2.xlsx
+++ b/datenRF4/SFU/i = 73,96 - Abtriebswelle 14 - Geber AV Y2/L3_73,96_14_AVY2.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 73^J96 - Abtriebswelle 14 - Geber AV Y2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{E3F07DDA-FCEF-4B03-8D52-D7B2F3C44CFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{053242C9-78E3-45F1-AFE0-B582706977B7}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{866BF88D-C05E-4884-BF71-5CC7F8CCDE18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -464,11 +458,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -685,6 +679,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,50 +755,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,7 +824,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -876,7 +876,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1070,80 +1070,80 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DA643C-8A92-4996-85A3-3168850BCFB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E96" sqref="E96"/>
+      <selection pane="bottomRight" activeCell="B77" activeCellId="17" sqref="B10 B17 B18 B23 B24 B30 B31 B37 B38 B45 B52 B53 B60 B61 B69 B68 B76 B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="17.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="1" max="4" width="17.1796875" customWidth="1"/>
+    <col min="5" max="5" width="28.26953125" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" customWidth="1"/>
+    <col min="9" max="9" width="41.1796875" customWidth="1"/>
+    <col min="11" max="11" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" customWidth="1"/>
+    <col min="14" max="14" width="18.54296875" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" customWidth="1"/>
+    <col min="16" max="16" width="19.54296875" customWidth="1"/>
+    <col min="17" max="17" width="23.7265625" customWidth="1"/>
+    <col min="18" max="18" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:19" ht="21">
+      <c r="A1" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="30" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="24" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="25"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="49"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="53"/>
       <c r="G2" s="23"/>
       <c r="H2" s="3"/>
       <c r="I2" s="12"/>
@@ -1158,7 +1158,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="4"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>71</v>
       </c>
@@ -1217,9 +1217,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="72.5">
       <c r="A4" s="14"/>
-      <c r="G4" s="35"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="14">
         <v>0</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="29.5" thickBot="1">
       <c r="A5" s="14"/>
       <c r="G5" s="17"/>
       <c r="H5" s="14">
@@ -1271,26 +1271,26 @@
       <c r="R5" s="15"/>
       <c r="S5" s="17"/>
     </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
-        <v>1</v>
-      </c>
-      <c r="B6" s="43">
-        <v>1</v>
-      </c>
-      <c r="C6" s="44">
-        <v>1</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="44" t="s">
+    <row r="6" spans="1:19" ht="29">
+      <c r="A6" s="31">
+        <v>1</v>
+      </c>
+      <c r="B6" s="32">
+        <v>1</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="36"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="14">
         <v>1</v>
       </c>
@@ -1322,11 +1322,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="35">
         <v>1</v>
       </c>
       <c r="C7">
@@ -1338,10 +1338,10 @@
       <c r="E7" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="37"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
@@ -1355,11 +1355,11 @@
       <c r="R7" s="15"/>
       <c r="S7" s="17"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="37">
         <v>2</v>
       </c>
       <c r="C8">
@@ -1371,10 +1371,10 @@
       <c r="E8" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="37"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
@@ -1388,11 +1388,11 @@
       <c r="R8" s="15"/>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15" thickBot="1">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="38">
         <v>2</v>
       </c>
       <c r="C9" s="2">
@@ -1404,10 +1404,10 @@
       <c r="E9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="27"/>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
@@ -1421,24 +1421,26 @@
       <c r="R9" s="15"/>
       <c r="S9" s="17"/>
     </row>
-    <row r="10" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51">
-        <v>1</v>
-      </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53">
-        <v>1</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="54" t="s">
+    <row r="10" spans="1:19" ht="29.5" thickBot="1">
+      <c r="A10" s="40">
+        <v>1</v>
+      </c>
+      <c r="B10" s="59">
+        <v>3</v>
+      </c>
+      <c r="C10" s="41">
+        <v>1</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="28">
         <v>22132</v>
       </c>
       <c r="H10" s="14"/>
@@ -1454,7 +1456,7 @@
       <c r="R10" s="15"/>
       <c r="S10" s="17"/>
     </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="29">
       <c r="A11" s="14"/>
       <c r="G11" s="17"/>
       <c r="H11" s="14">
@@ -1478,7 +1480,7 @@
       <c r="R11" s="15"/>
       <c r="S11" s="17"/>
     </row>
-    <row r="12" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="29.5" thickBot="1">
       <c r="A12" s="14"/>
       <c r="G12" s="17"/>
       <c r="H12" s="14">
@@ -1502,26 +1504,26 @@
       <c r="R12" s="15"/>
       <c r="S12" s="17"/>
     </row>
-    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
-        <v>1</v>
-      </c>
-      <c r="B13" s="43">
-        <v>1</v>
-      </c>
-      <c r="C13" s="44">
-        <v>1</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="44" t="s">
+    <row r="13" spans="1:19" ht="43.5">
+      <c r="A13" s="31">
+        <v>1</v>
+      </c>
+      <c r="B13" s="32">
+        <v>1</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="36"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="14">
         <v>3</v>
       </c>
@@ -1553,11 +1555,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="14">
         <v>5</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="35">
         <v>1</v>
       </c>
       <c r="C14">
@@ -1569,10 +1571,10 @@
       <c r="E14" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="37"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="14"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -1586,11 +1588,11 @@
       <c r="R14" s="15"/>
       <c r="S14" s="17"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="14">
         <v>6</v>
       </c>
-      <c r="B15" s="48">
+      <c r="B15" s="37">
         <v>2</v>
       </c>
       <c r="C15">
@@ -1602,10 +1604,10 @@
       <c r="E15" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="37"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="14"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
@@ -1619,11 +1621,11 @@
       <c r="R15" s="15"/>
       <c r="S15" s="17"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" thickBot="1">
       <c r="A16" s="14">
         <v>7</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="37">
         <v>2</v>
       </c>
       <c r="C16">
@@ -1635,10 +1637,10 @@
       <c r="E16" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="37"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="14"/>
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
@@ -1652,24 +1654,26 @@
       <c r="R16" s="15"/>
       <c r="S16" s="17"/>
     </row>
-    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="42">
-        <v>1</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44">
-        <v>1</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="55" t="s">
+    <row r="17" spans="1:19" ht="29">
+      <c r="A17" s="31">
+        <v>1</v>
+      </c>
+      <c r="B17" s="60">
+        <v>3</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="24">
         <v>22132</v>
       </c>
       <c r="H17" s="14"/>
@@ -1685,11 +1689,13 @@
       <c r="R17" s="15"/>
       <c r="S17" s="17"/>
     </row>
-    <row r="18" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="29.5" thickBot="1">
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="61">
+        <v>3</v>
+      </c>
       <c r="C18" s="2">
         <v>4</v>
       </c>
@@ -1718,26 +1724,26 @@
       <c r="R18" s="15"/>
       <c r="S18" s="17"/>
     </row>
-    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="42">
-        <v>1</v>
-      </c>
-      <c r="B19" s="43">
-        <v>1</v>
-      </c>
-      <c r="C19" s="44">
-        <v>1</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="44" t="s">
+    <row r="19" spans="1:19" ht="43.5">
+      <c r="A19" s="31">
+        <v>1</v>
+      </c>
+      <c r="B19" s="32">
+        <v>1</v>
+      </c>
+      <c r="C19" s="33">
+        <v>1</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="36"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="14">
         <v>4</v>
       </c>
@@ -1769,11 +1775,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="14">
         <v>5</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="35">
         <v>1</v>
       </c>
       <c r="C20">
@@ -1785,10 +1791,10 @@
       <c r="E20" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="37"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="14"/>
       <c r="I20" s="15"/>
       <c r="J20" s="15"/>
@@ -1802,11 +1808,11 @@
       <c r="R20" s="15"/>
       <c r="S20" s="17"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="14">
         <v>6</v>
       </c>
-      <c r="B21" s="48">
+      <c r="B21" s="37">
         <v>2</v>
       </c>
       <c r="C21">
@@ -1818,10 +1824,10 @@
       <c r="E21" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="37"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="14"/>
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
@@ -1835,11 +1841,11 @@
       <c r="R21" s="15"/>
       <c r="S21" s="17"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" thickBot="1">
       <c r="A22" s="14">
         <v>7</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="37">
         <v>2</v>
       </c>
       <c r="C22">
@@ -1851,10 +1857,10 @@
       <c r="E22" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="37"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
@@ -1868,24 +1874,26 @@
       <c r="R22" s="15"/>
       <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="42">
-        <v>1</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="44">
-        <v>1</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="55" t="s">
+    <row r="23" spans="1:19" ht="29">
+      <c r="A23" s="31">
+        <v>1</v>
+      </c>
+      <c r="B23" s="60">
+        <v>3</v>
+      </c>
+      <c r="C23" s="33">
+        <v>1</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="24">
         <v>22132</v>
       </c>
       <c r="H23" s="14"/>
@@ -1901,11 +1909,13 @@
       <c r="R23" s="15"/>
       <c r="S23" s="17"/>
     </row>
-    <row r="24" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="29.5" thickBot="1">
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="61">
+        <v>3</v>
+      </c>
       <c r="C24" s="2">
         <v>4</v>
       </c>
@@ -1934,7 +1944,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="17"/>
     </row>
-    <row r="25" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="44" thickBot="1">
       <c r="A25" s="14"/>
       <c r="G25" s="17"/>
       <c r="H25" s="14">
@@ -1958,26 +1968,26 @@
       <c r="R25" s="15"/>
       <c r="S25" s="17"/>
     </row>
-    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="42">
-        <v>1</v>
-      </c>
-      <c r="B26" s="43">
-        <v>1</v>
-      </c>
-      <c r="C26" s="44">
-        <v>1</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="44" t="s">
+    <row r="26" spans="1:19" ht="43.5">
+      <c r="A26" s="31">
+        <v>1</v>
+      </c>
+      <c r="B26" s="32">
+        <v>1</v>
+      </c>
+      <c r="C26" s="33">
+        <v>1</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="45" t="s">
+      <c r="F26" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="36"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="14">
         <v>5</v>
       </c>
@@ -2011,11 +2021,11 @@
       </c>
       <c r="S26" s="17"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="14">
         <v>5</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="35">
         <v>1</v>
       </c>
       <c r="C27">
@@ -2027,10 +2037,10 @@
       <c r="E27" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="37"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="14"/>
       <c r="I27" s="15"/>
       <c r="J27" s="15"/>
@@ -2044,11 +2054,11 @@
       <c r="R27" s="15"/>
       <c r="S27" s="17"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="14">
         <v>6</v>
       </c>
-      <c r="B28" s="48">
+      <c r="B28" s="37">
         <v>2</v>
       </c>
       <c r="C28">
@@ -2060,10 +2070,10 @@
       <c r="E28" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="37"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="14"/>
       <c r="I28" s="15"/>
       <c r="J28" s="15"/>
@@ -2077,11 +2087,11 @@
       <c r="R28" s="15"/>
       <c r="S28" s="17"/>
     </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" thickBot="1">
       <c r="A29" s="14">
         <v>7</v>
       </c>
-      <c r="B29" s="48">
+      <c r="B29" s="37">
         <v>2</v>
       </c>
       <c r="C29">
@@ -2093,10 +2103,10 @@
       <c r="E29" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="37"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="14"/>
       <c r="I29" s="15"/>
       <c r="J29" s="15"/>
@@ -2110,24 +2120,26 @@
       <c r="R29" s="15"/>
       <c r="S29" s="17"/>
     </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="42">
-        <v>1</v>
-      </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44">
-        <v>1</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="55" t="s">
+    <row r="30" spans="1:19" ht="29">
+      <c r="A30" s="31">
+        <v>1</v>
+      </c>
+      <c r="B30" s="60">
+        <v>3</v>
+      </c>
+      <c r="C30" s="33">
+        <v>1</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="35">
+      <c r="G30" s="24">
         <v>22132</v>
       </c>
       <c r="H30" s="14"/>
@@ -2143,11 +2155,13 @@
       <c r="R30" s="15"/>
       <c r="S30" s="17"/>
     </row>
-    <row r="31" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="29.5" thickBot="1">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="49"/>
+      <c r="B31" s="61">
+        <v>3</v>
+      </c>
       <c r="C31" s="2">
         <v>4</v>
       </c>
@@ -2176,7 +2190,7 @@
       <c r="R31" s="15"/>
       <c r="S31" s="17"/>
     </row>
-    <row r="32" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="29.5" thickBot="1">
       <c r="A32" s="14"/>
       <c r="G32" s="17"/>
       <c r="H32" s="14">
@@ -2200,26 +2214,26 @@
       <c r="R32" s="15"/>
       <c r="S32" s="17"/>
     </row>
-    <row r="33" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="42">
-        <v>1</v>
-      </c>
-      <c r="B33" s="43">
-        <v>1</v>
-      </c>
-      <c r="C33" s="44">
-        <v>1</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="44" t="s">
+    <row r="33" spans="1:19" ht="29">
+      <c r="A33" s="31">
+        <v>1</v>
+      </c>
+      <c r="B33" s="32">
+        <v>1</v>
+      </c>
+      <c r="C33" s="33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="45" t="s">
+      <c r="F33" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G33" s="36"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="14">
         <v>6</v>
       </c>
@@ -2251,11 +2265,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="14">
         <v>5</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="35">
         <v>1</v>
       </c>
       <c r="C34">
@@ -2267,10 +2281,10 @@
       <c r="E34" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="47" t="s">
+      <c r="F34" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G34" s="37"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="14"/>
       <c r="I34" s="15"/>
       <c r="J34" s="15"/>
@@ -2284,11 +2298,11 @@
       <c r="R34" s="15"/>
       <c r="S34" s="17"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="14">
         <v>6</v>
       </c>
-      <c r="B35" s="48">
+      <c r="B35" s="37">
         <v>2</v>
       </c>
       <c r="C35">
@@ -2300,10 +2314,10 @@
       <c r="E35" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="47" t="s">
+      <c r="F35" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G35" s="37"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="14"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
@@ -2317,11 +2331,11 @@
       <c r="R35" s="15"/>
       <c r="S35" s="17"/>
     </row>
-    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" thickBot="1">
       <c r="A36" s="14">
         <v>7</v>
       </c>
-      <c r="B36" s="48">
+      <c r="B36" s="37">
         <v>2</v>
       </c>
       <c r="C36">
@@ -2333,10 +2347,10 @@
       <c r="E36" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="47" t="s">
+      <c r="F36" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="G36" s="37"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="14"/>
       <c r="I36" s="15"/>
       <c r="J36" s="15"/>
@@ -2350,24 +2364,26 @@
       <c r="R36" s="15"/>
       <c r="S36" s="17"/>
     </row>
-    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="42">
-        <v>1</v>
-      </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="44">
-        <v>1</v>
-      </c>
-      <c r="D37" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="55" t="s">
+    <row r="37" spans="1:19" ht="29">
+      <c r="A37" s="31">
+        <v>1</v>
+      </c>
+      <c r="B37" s="60">
+        <v>3</v>
+      </c>
+      <c r="C37" s="33">
+        <v>1</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G37" s="35">
+      <c r="G37" s="24">
         <v>22132</v>
       </c>
       <c r="H37" s="14"/>
@@ -2383,11 +2399,13 @@
       <c r="R37" s="15"/>
       <c r="S37" s="17"/>
     </row>
-    <row r="38" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="29.5" thickBot="1">
       <c r="A38" s="1">
         <v>2</v>
       </c>
-      <c r="B38" s="49"/>
+      <c r="B38" s="61">
+        <v>3</v>
+      </c>
       <c r="C38" s="2">
         <v>4</v>
       </c>
@@ -2416,9 +2434,9 @@
       <c r="R38" s="15"/>
       <c r="S38" s="17"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" thickBot="1">
       <c r="A39" s="14"/>
-      <c r="G39" s="36"/>
+      <c r="G39" s="25"/>
       <c r="H39" s="14">
         <v>7</v>
       </c>
@@ -2440,26 +2458,26 @@
       <c r="R39" s="15"/>
       <c r="S39" s="17"/>
     </row>
-    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="42">
-        <v>1</v>
-      </c>
-      <c r="B40" s="43">
-        <v>1</v>
-      </c>
-      <c r="C40" s="44">
-        <v>1</v>
-      </c>
-      <c r="D40" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="44" t="s">
+    <row r="40" spans="1:19" ht="29">
+      <c r="A40" s="31">
+        <v>1</v>
+      </c>
+      <c r="B40" s="32">
+        <v>1</v>
+      </c>
+      <c r="C40" s="33">
+        <v>1</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G40" s="36"/>
+      <c r="G40" s="25"/>
       <c r="H40" s="14">
         <v>7</v>
       </c>
@@ -2491,11 +2509,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="14">
         <v>5</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="35">
         <v>1</v>
       </c>
       <c r="C41">
@@ -2507,10 +2525,10 @@
       <c r="E41" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="47" t="s">
+      <c r="F41" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="37"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="14"/>
       <c r="I41" s="15"/>
       <c r="J41" s="15"/>
@@ -2524,11 +2542,11 @@
       <c r="R41" s="15"/>
       <c r="S41" s="17"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="14">
         <v>6</v>
       </c>
-      <c r="B42" s="48">
+      <c r="B42" s="37">
         <v>2</v>
       </c>
       <c r="C42">
@@ -2540,10 +2558,10 @@
       <c r="E42" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="47" t="s">
+      <c r="F42" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G42" s="37"/>
+      <c r="G42" s="26"/>
       <c r="H42" s="14"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15"/>
@@ -2557,11 +2575,11 @@
       <c r="R42" s="15"/>
       <c r="S42" s="17"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="14">
         <v>7</v>
       </c>
-      <c r="B43" s="48">
+      <c r="B43" s="37">
         <v>2</v>
       </c>
       <c r="C43">
@@ -2573,7 +2591,7 @@
       <c r="E43" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="36" t="s">
         <v>83</v>
       </c>
       <c r="G43" s="17"/>
@@ -2590,11 +2608,11 @@
       <c r="R43" s="15"/>
       <c r="S43" s="17"/>
     </row>
-    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" thickBot="1">
       <c r="A44" s="14">
         <v>8</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="37">
         <v>2</v>
       </c>
       <c r="C44">
@@ -2603,10 +2621,10 @@
       <c r="D44" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="56" t="s">
+      <c r="E44" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="F44" s="47" t="s">
+      <c r="F44" s="36" t="s">
         <v>88</v>
       </c>
       <c r="G44" s="17"/>
@@ -2623,24 +2641,26 @@
       <c r="R44" s="15"/>
       <c r="S44" s="17"/>
     </row>
-    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51">
-        <v>1</v>
-      </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="53">
-        <v>1</v>
-      </c>
-      <c r="D45" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="54" t="s">
+    <row r="45" spans="1:19" ht="15" thickBot="1">
+      <c r="A45" s="40">
+        <v>1</v>
+      </c>
+      <c r="B45" s="59">
+        <v>3</v>
+      </c>
+      <c r="C45" s="41">
+        <v>1</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="53" t="s">
+      <c r="F45" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="G45" s="39">
+      <c r="G45" s="28">
         <v>11132</v>
       </c>
       <c r="H45" s="14"/>
@@ -2656,9 +2676,9 @@
       <c r="R45" s="15"/>
       <c r="S45" s="17"/>
     </row>
-    <row r="46" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="44" thickBot="1">
       <c r="A46" s="14"/>
-      <c r="G46" s="37"/>
+      <c r="G46" s="26"/>
       <c r="H46" s="14">
         <v>8</v>
       </c>
@@ -2680,26 +2700,26 @@
       <c r="R46" s="15"/>
       <c r="S46" s="17"/>
     </row>
-    <row r="47" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="42">
-        <v>1</v>
-      </c>
-      <c r="B47" s="43">
-        <v>1</v>
-      </c>
-      <c r="C47" s="44">
-        <v>1</v>
-      </c>
-      <c r="D47" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="44" t="s">
+    <row r="47" spans="1:19" ht="43.5">
+      <c r="A47" s="31">
+        <v>1</v>
+      </c>
+      <c r="B47" s="32">
+        <v>1</v>
+      </c>
+      <c r="C47" s="33">
+        <v>1</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F47" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G47" s="36"/>
+      <c r="G47" s="25"/>
       <c r="H47" s="14">
         <v>9</v>
       </c>
@@ -2731,11 +2751,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="14">
         <v>5</v>
       </c>
-      <c r="B48" s="46">
+      <c r="B48" s="35">
         <v>1</v>
       </c>
       <c r="C48">
@@ -2747,10 +2767,10 @@
       <c r="E48" t="s">
         <v>78</v>
       </c>
-      <c r="F48" s="47" t="s">
+      <c r="F48" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="37"/>
+      <c r="G48" s="26"/>
       <c r="H48" s="14"/>
       <c r="I48" s="15"/>
       <c r="J48" s="15"/>
@@ -2764,11 +2784,11 @@
       <c r="R48" s="15"/>
       <c r="S48" s="17"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="14">
         <v>6</v>
       </c>
-      <c r="B49" s="48">
+      <c r="B49" s="37">
         <v>2</v>
       </c>
       <c r="C49">
@@ -2780,7 +2800,7 @@
       <c r="E49" t="s">
         <v>80</v>
       </c>
-      <c r="F49" s="47" t="s">
+      <c r="F49" s="36" t="s">
         <v>81</v>
       </c>
       <c r="G49" s="17"/>
@@ -2797,11 +2817,11 @@
       <c r="R49" s="15"/>
       <c r="S49" s="17"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="14">
         <v>7</v>
       </c>
-      <c r="B50" s="48">
+      <c r="B50" s="37">
         <v>2</v>
       </c>
       <c r="C50">
@@ -2813,7 +2833,7 @@
       <c r="E50" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="47" t="s">
+      <c r="F50" s="36" t="s">
         <v>83</v>
       </c>
       <c r="G50" s="17"/>
@@ -2830,11 +2850,11 @@
       <c r="R50" s="15"/>
       <c r="S50" s="17"/>
     </row>
-    <row r="51" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" thickBot="1">
       <c r="A51" s="14">
         <v>8</v>
       </c>
-      <c r="B51" s="48">
+      <c r="B51" s="37">
         <v>2</v>
       </c>
       <c r="C51">
@@ -2843,10 +2863,10 @@
       <c r="D51" t="s">
         <v>77</v>
       </c>
-      <c r="E51" s="56" t="s">
+      <c r="E51" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="F51" s="47" t="s">
+      <c r="F51" s="36" t="s">
         <v>88</v>
       </c>
       <c r="G51" s="17"/>
@@ -2863,24 +2883,26 @@
       <c r="R51" s="15"/>
       <c r="S51" s="17"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="42">
-        <v>1</v>
-      </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="44">
-        <v>1</v>
-      </c>
-      <c r="D52" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E52" s="55" t="s">
+    <row r="52" spans="1:19">
+      <c r="A52" s="31">
+        <v>1</v>
+      </c>
+      <c r="B52" s="60">
+        <v>3</v>
+      </c>
+      <c r="C52" s="33">
+        <v>1</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="44" t="s">
+      <c r="F52" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="35">
+      <c r="G52" s="24">
         <v>11132</v>
       </c>
       <c r="H52" s="14"/>
@@ -2896,11 +2918,13 @@
       <c r="R52" s="15"/>
       <c r="S52" s="17"/>
     </row>
-    <row r="53" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="29.5" thickBot="1">
       <c r="A53" s="1">
         <v>2</v>
       </c>
-      <c r="B53" s="49"/>
+      <c r="B53" s="61">
+        <v>3</v>
+      </c>
       <c r="C53" s="2">
         <v>3</v>
       </c>
@@ -2929,7 +2953,7 @@
       <c r="R53" s="15"/>
       <c r="S53" s="17"/>
     </row>
-    <row r="54" spans="1:19" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="44" thickBot="1">
       <c r="A54" s="14"/>
       <c r="G54" s="17"/>
       <c r="H54" s="14">
@@ -2953,26 +2977,26 @@
       <c r="R54" s="15"/>
       <c r="S54" s="17"/>
     </row>
-    <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="42">
-        <v>1</v>
-      </c>
-      <c r="B55" s="43">
-        <v>1</v>
-      </c>
-      <c r="C55" s="44">
-        <v>1</v>
-      </c>
-      <c r="D55" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="44" t="s">
+    <row r="55" spans="1:19" ht="43.5">
+      <c r="A55" s="31">
+        <v>1</v>
+      </c>
+      <c r="B55" s="32">
+        <v>1</v>
+      </c>
+      <c r="C55" s="33">
+        <v>1</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F55" s="45" t="s">
+      <c r="F55" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G55" s="35"/>
+      <c r="G55" s="24"/>
       <c r="H55" s="14">
         <v>10</v>
       </c>
@@ -3004,11 +3028,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" s="14">
         <v>5</v>
       </c>
-      <c r="B56" s="46">
+      <c r="B56" s="35">
         <v>1</v>
       </c>
       <c r="C56">
@@ -3020,7 +3044,7 @@
       <c r="E56" t="s">
         <v>78</v>
       </c>
-      <c r="F56" s="47" t="s">
+      <c r="F56" s="36" t="s">
         <v>79</v>
       </c>
       <c r="G56" s="17"/>
@@ -3037,11 +3061,11 @@
       <c r="R56" s="15"/>
       <c r="S56" s="17"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="14">
         <v>6</v>
       </c>
-      <c r="B57" s="48">
+      <c r="B57" s="37">
         <v>2</v>
       </c>
       <c r="C57">
@@ -3053,7 +3077,7 @@
       <c r="E57" t="s">
         <v>80</v>
       </c>
-      <c r="F57" s="47" t="s">
+      <c r="F57" s="36" t="s">
         <v>81</v>
       </c>
       <c r="G57" s="17"/>
@@ -3070,11 +3094,11 @@
       <c r="R57" s="15"/>
       <c r="S57" s="17"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="14">
         <v>7</v>
       </c>
-      <c r="B58" s="48">
+      <c r="B58" s="37">
         <v>2</v>
       </c>
       <c r="C58">
@@ -3086,7 +3110,7 @@
       <c r="E58" t="s">
         <v>82</v>
       </c>
-      <c r="F58" s="47" t="s">
+      <c r="F58" s="36" t="s">
         <v>83</v>
       </c>
       <c r="G58" s="17"/>
@@ -3103,11 +3127,11 @@
       <c r="R58" s="15"/>
       <c r="S58" s="17"/>
     </row>
-    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" thickBot="1">
       <c r="A59" s="14">
         <v>8</v>
       </c>
-      <c r="B59" s="48">
+      <c r="B59" s="37">
         <v>2</v>
       </c>
       <c r="C59">
@@ -3116,10 +3140,10 @@
       <c r="D59" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="56" t="s">
+      <c r="E59" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="F59" s="47" t="s">
+      <c r="F59" s="36" t="s">
         <v>88</v>
       </c>
       <c r="G59" s="17"/>
@@ -3136,24 +3160,26 @@
       <c r="R59" s="15"/>
       <c r="S59" s="17"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="42">
-        <v>1</v>
-      </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="44">
-        <v>1</v>
-      </c>
-      <c r="D60" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="55" t="s">
+    <row r="60" spans="1:19">
+      <c r="A60" s="31">
+        <v>1</v>
+      </c>
+      <c r="B60" s="60">
+        <v>3</v>
+      </c>
+      <c r="C60" s="33">
+        <v>1</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F60" s="44" t="s">
+      <c r="F60" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="G60" s="35">
+      <c r="G60" s="24">
         <v>11132</v>
       </c>
       <c r="H60" s="14"/>
@@ -3169,11 +3195,13 @@
       <c r="R60" s="15"/>
       <c r="S60" s="17"/>
     </row>
-    <row r="61" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="29.5" thickBot="1">
       <c r="A61" s="1">
         <v>2</v>
       </c>
-      <c r="B61" s="49"/>
+      <c r="B61" s="61">
+        <v>3</v>
+      </c>
       <c r="C61" s="2">
         <v>3</v>
       </c>
@@ -3202,7 +3230,7 @@
       <c r="R61" s="15"/>
       <c r="S61" s="17"/>
     </row>
-    <row r="62" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="44" thickBot="1">
       <c r="A62" s="14"/>
       <c r="G62" s="17"/>
       <c r="H62" s="14">
@@ -3226,26 +3254,26 @@
       <c r="R62" s="15"/>
       <c r="S62" s="17"/>
     </row>
-    <row r="63" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="42">
-        <v>1</v>
-      </c>
-      <c r="B63" s="43">
-        <v>1</v>
-      </c>
-      <c r="C63" s="44">
-        <v>1</v>
-      </c>
-      <c r="D63" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E63" s="44" t="s">
+    <row r="63" spans="1:19" ht="58">
+      <c r="A63" s="31">
+        <v>1</v>
+      </c>
+      <c r="B63" s="32">
+        <v>1</v>
+      </c>
+      <c r="C63" s="33">
+        <v>1</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F63" s="45" t="s">
+      <c r="F63" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G63" s="35"/>
+      <c r="G63" s="24"/>
       <c r="H63" s="14">
         <v>11</v>
       </c>
@@ -3279,11 +3307,11 @@
       </c>
       <c r="S63" s="17"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="A64" s="14">
         <v>5</v>
       </c>
-      <c r="B64" s="46">
+      <c r="B64" s="35">
         <v>1</v>
       </c>
       <c r="C64">
@@ -3295,7 +3323,7 @@
       <c r="E64" t="s">
         <v>78</v>
       </c>
-      <c r="F64" s="47" t="s">
+      <c r="F64" s="36" t="s">
         <v>79</v>
       </c>
       <c r="G64" s="17"/>
@@ -3312,11 +3340,11 @@
       <c r="R64" s="15"/>
       <c r="S64" s="17"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19">
       <c r="A65" s="14">
         <v>6</v>
       </c>
-      <c r="B65" s="48">
+      <c r="B65" s="37">
         <v>2</v>
       </c>
       <c r="C65">
@@ -3328,7 +3356,7 @@
       <c r="E65" t="s">
         <v>80</v>
       </c>
-      <c r="F65" s="47" t="s">
+      <c r="F65" s="36" t="s">
         <v>81</v>
       </c>
       <c r="G65" s="17"/>
@@ -3345,11 +3373,11 @@
       <c r="R65" s="15"/>
       <c r="S65" s="17"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="A66" s="14">
         <v>7</v>
       </c>
-      <c r="B66" s="48">
+      <c r="B66" s="37">
         <v>2</v>
       </c>
       <c r="C66">
@@ -3361,7 +3389,7 @@
       <c r="E66" t="s">
         <v>82</v>
       </c>
-      <c r="F66" s="47" t="s">
+      <c r="F66" s="36" t="s">
         <v>83</v>
       </c>
       <c r="G66" s="17"/>
@@ -3378,11 +3406,11 @@
       <c r="R66" s="15"/>
       <c r="S66" s="17"/>
     </row>
-    <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" thickBot="1">
       <c r="A67" s="14">
         <v>8</v>
       </c>
-      <c r="B67" s="48">
+      <c r="B67" s="37">
         <v>2</v>
       </c>
       <c r="C67">
@@ -3391,10 +3419,10 @@
       <c r="D67" t="s">
         <v>77</v>
       </c>
-      <c r="E67" s="56" t="s">
+      <c r="E67" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="F67" s="47" t="s">
+      <c r="F67" s="36" t="s">
         <v>88</v>
       </c>
       <c r="G67" s="17"/>
@@ -3411,24 +3439,26 @@
       <c r="R67" s="15"/>
       <c r="S67" s="17"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="42">
-        <v>1</v>
-      </c>
-      <c r="B68" s="43"/>
-      <c r="C68" s="44">
-        <v>1</v>
-      </c>
-      <c r="D68" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E68" s="55" t="s">
+    <row r="68" spans="1:19">
+      <c r="A68" s="31">
+        <v>1</v>
+      </c>
+      <c r="B68" s="60">
+        <v>3</v>
+      </c>
+      <c r="C68" s="33">
+        <v>1</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="44" t="s">
+      <c r="F68" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="G68" s="35">
+      <c r="G68" s="24">
         <v>11132</v>
       </c>
       <c r="H68" s="14"/>
@@ -3441,11 +3471,13 @@
       <c r="R68" s="15"/>
       <c r="S68" s="17"/>
     </row>
-    <row r="69" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="29.5" thickBot="1">
       <c r="A69" s="1">
         <v>2</v>
       </c>
-      <c r="B69" s="49"/>
+      <c r="B69" s="61">
+        <v>3</v>
+      </c>
       <c r="C69" s="2">
         <v>3</v>
       </c>
@@ -3471,7 +3503,7 @@
       <c r="R69" s="15"/>
       <c r="S69" s="17"/>
     </row>
-    <row r="70" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="44" thickBot="1">
       <c r="A70" s="14"/>
       <c r="G70" s="17"/>
       <c r="H70" s="14">
@@ -3492,26 +3524,26 @@
       <c r="R70" s="15"/>
       <c r="S70" s="17"/>
     </row>
-    <row r="71" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="42">
-        <v>1</v>
-      </c>
-      <c r="B71" s="43">
-        <v>1</v>
-      </c>
-      <c r="C71" s="44">
-        <v>1</v>
-      </c>
-      <c r="D71" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E71" s="44" t="s">
+    <row r="71" spans="1:19" ht="29">
+      <c r="A71" s="31">
+        <v>1</v>
+      </c>
+      <c r="B71" s="32">
+        <v>1</v>
+      </c>
+      <c r="C71" s="33">
+        <v>1</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F71" s="45" t="s">
+      <c r="F71" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G71" s="35"/>
+      <c r="G71" s="24"/>
       <c r="H71" s="14">
         <v>12</v>
       </c>
@@ -3538,11 +3570,11 @@
       </c>
       <c r="S71" s="17"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19">
       <c r="A72" s="14">
         <v>5</v>
       </c>
-      <c r="B72" s="46">
+      <c r="B72" s="35">
         <v>1</v>
       </c>
       <c r="C72">
@@ -3554,7 +3586,7 @@
       <c r="E72" t="s">
         <v>78</v>
       </c>
-      <c r="F72" s="47" t="s">
+      <c r="F72" s="36" t="s">
         <v>79</v>
       </c>
       <c r="G72" s="17"/>
@@ -3568,11 +3600,11 @@
       <c r="R72" s="15"/>
       <c r="S72" s="17"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19">
       <c r="A73" s="14">
         <v>6</v>
       </c>
-      <c r="B73" s="48">
+      <c r="B73" s="37">
         <v>2</v>
       </c>
       <c r="C73">
@@ -3584,7 +3616,7 @@
       <c r="E73" t="s">
         <v>80</v>
       </c>
-      <c r="F73" s="47" t="s">
+      <c r="F73" s="36" t="s">
         <v>81</v>
       </c>
       <c r="G73" s="17"/>
@@ -3598,11 +3630,11 @@
       <c r="R73" s="15"/>
       <c r="S73" s="17"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19">
       <c r="A74" s="14">
         <v>7</v>
       </c>
-      <c r="B74" s="48">
+      <c r="B74" s="37">
         <v>2</v>
       </c>
       <c r="C74">
@@ -3614,7 +3646,7 @@
       <c r="E74" t="s">
         <v>82</v>
       </c>
-      <c r="F74" s="47" t="s">
+      <c r="F74" s="36" t="s">
         <v>83</v>
       </c>
       <c r="G74" s="17"/>
@@ -3628,11 +3660,11 @@
       <c r="R74" s="15"/>
       <c r="S74" s="17"/>
     </row>
-    <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="15" thickBot="1">
       <c r="A75" s="14">
         <v>8</v>
       </c>
-      <c r="B75" s="48">
+      <c r="B75" s="37">
         <v>2</v>
       </c>
       <c r="C75">
@@ -3641,10 +3673,10 @@
       <c r="D75" t="s">
         <v>77</v>
       </c>
-      <c r="E75" s="56" t="s">
+      <c r="E75" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="F75" s="47" t="s">
+      <c r="F75" s="36" t="s">
         <v>88</v>
       </c>
       <c r="G75" s="17"/>
@@ -3658,24 +3690,26 @@
       <c r="R75" s="15"/>
       <c r="S75" s="17"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="42">
-        <v>1</v>
-      </c>
-      <c r="B76" s="43"/>
-      <c r="C76" s="44">
-        <v>1</v>
-      </c>
-      <c r="D76" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E76" s="55" t="s">
+    <row r="76" spans="1:19">
+      <c r="A76" s="31">
+        <v>1</v>
+      </c>
+      <c r="B76" s="60">
+        <v>3</v>
+      </c>
+      <c r="C76" s="33">
+        <v>1</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="F76" s="44" t="s">
+      <c r="F76" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="G76" s="35">
+      <c r="G76" s="24">
         <v>11132</v>
       </c>
       <c r="H76" s="14"/>
@@ -3688,11 +3722,13 @@
       <c r="R76" s="15"/>
       <c r="S76" s="17"/>
     </row>
-    <row r="77" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="29.5" thickBot="1">
       <c r="A77" s="1">
         <v>2</v>
       </c>
-      <c r="B77" s="49"/>
+      <c r="B77" s="61">
+        <v>3</v>
+      </c>
       <c r="C77" s="2">
         <v>3</v>
       </c>
@@ -3718,7 +3754,7 @@
       <c r="R77" s="15"/>
       <c r="S77" s="17"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19">
       <c r="A78" s="14"/>
       <c r="G78" s="17"/>
       <c r="H78" s="14">
@@ -3739,7 +3775,7 @@
       <c r="R78" s="15"/>
       <c r="S78" s="17"/>
     </row>
-    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="29">
       <c r="A79" s="14"/>
       <c r="G79" s="17"/>
       <c r="H79" s="14">
@@ -3760,7 +3796,7 @@
       <c r="R79" s="15"/>
       <c r="S79" s="17"/>
     </row>
-    <row r="80" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="29.5" thickBot="1">
       <c r="A80" s="14"/>
       <c r="G80" s="17"/>
       <c r="H80" s="14">
@@ -3781,26 +3817,26 @@
       <c r="R80" s="15"/>
       <c r="S80" s="17"/>
     </row>
-    <row r="81" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="42">
-        <v>1</v>
-      </c>
-      <c r="B81" s="43">
-        <v>1</v>
-      </c>
-      <c r="C81" s="44">
-        <v>1</v>
-      </c>
-      <c r="D81" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E81" s="44" t="s">
+    <row r="81" spans="1:19" ht="29.5" thickBot="1">
+      <c r="A81" s="31">
+        <v>1</v>
+      </c>
+      <c r="B81" s="32">
+        <v>1</v>
+      </c>
+      <c r="C81" s="33">
+        <v>1</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F81" s="45" t="s">
+      <c r="F81" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G81" s="36"/>
+      <c r="G81" s="25"/>
       <c r="H81" s="14">
         <v>13</v>
       </c>
@@ -3829,26 +3865,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="51">
+    <row r="82" spans="1:19" ht="15" thickBot="1">
+      <c r="A82" s="40">
         <v>4</v>
       </c>
-      <c r="B82" s="57">
+      <c r="B82" s="45">
         <v>2</v>
       </c>
-      <c r="C82" s="53">
-        <v>1</v>
-      </c>
-      <c r="D82" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="E82" s="54" t="s">
+      <c r="C82" s="41">
+        <v>1</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E82" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="F82" s="58" t="s">
+      <c r="F82" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="G82" s="40">
+      <c r="G82" s="29">
         <v>12140</v>
       </c>
       <c r="H82" s="14"/>
@@ -3861,11 +3897,11 @@
       <c r="R82" s="15"/>
       <c r="S82" s="17"/>
     </row>
-    <row r="83" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="15" thickBot="1">
       <c r="A83" s="1">
         <v>5</v>
       </c>
-      <c r="B83" s="59">
+      <c r="B83" s="47">
         <v>1</v>
       </c>
       <c r="C83" s="2">
@@ -3877,10 +3913,10 @@
       <c r="E83" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F83" s="50" t="s">
+      <c r="F83" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G83" s="38"/>
+      <c r="G83" s="27"/>
       <c r="H83" s="14"/>
       <c r="I83" s="15"/>
       <c r="J83" s="15"/>
@@ -3891,7 +3927,7 @@
       <c r="R83" s="15"/>
       <c r="S83" s="17"/>
     </row>
-    <row r="84" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="29">
       <c r="A84" s="14"/>
       <c r="G84" s="17"/>
       <c r="H84" s="14">
@@ -3912,7 +3948,7 @@
       <c r="R84" s="15"/>
       <c r="S84" s="17"/>
     </row>
-    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="29">
       <c r="A85" s="14"/>
       <c r="G85" s="17"/>
       <c r="H85" s="14">
@@ -3933,7 +3969,7 @@
       <c r="R85" s="15"/>
       <c r="S85" s="17"/>
     </row>
-    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="29">
       <c r="A86" s="14"/>
       <c r="G86" s="17"/>
       <c r="H86" s="14">
@@ -3954,7 +3990,7 @@
       <c r="R86" s="15"/>
       <c r="S86" s="17"/>
     </row>
-    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="29">
       <c r="A87" s="14"/>
       <c r="G87" s="17"/>
       <c r="H87" s="14">
@@ -3975,7 +4011,7 @@
       <c r="R87" s="15"/>
       <c r="S87" s="17"/>
     </row>
-    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="29">
       <c r="A88" s="14"/>
       <c r="G88" s="17"/>
       <c r="H88" s="14">
@@ -3996,7 +4032,7 @@
       <c r="R88" s="15"/>
       <c r="S88" s="17"/>
     </row>
-    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="29">
       <c r="A89" s="14"/>
       <c r="G89" s="17"/>
       <c r="H89" s="14">
@@ -4017,7 +4053,7 @@
       <c r="R89" s="15"/>
       <c r="S89" s="17"/>
     </row>
-    <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="29">
       <c r="A90" s="14"/>
       <c r="G90" s="17"/>
       <c r="H90" s="14">
@@ -4038,7 +4074,7 @@
       <c r="R90" s="15"/>
       <c r="S90" s="17"/>
     </row>
-    <row r="91" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="29">
       <c r="A91" s="14"/>
       <c r="G91" s="17"/>
       <c r="H91" s="14">
@@ -4059,9 +4095,9 @@
       <c r="R91" s="15"/>
       <c r="S91" s="17"/>
     </row>
-    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="29">
       <c r="A92" s="14"/>
-      <c r="G92" s="37"/>
+      <c r="G92" s="26"/>
       <c r="H92" s="14">
         <v>13</v>
       </c>
@@ -4080,9 +4116,9 @@
       <c r="R92" s="15"/>
       <c r="S92" s="17"/>
     </row>
-    <row r="93" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="43.5">
       <c r="A93" s="14"/>
-      <c r="G93" s="41"/>
+      <c r="G93" s="30"/>
       <c r="H93" s="14">
         <v>14</v>
       </c>
@@ -4101,9 +4137,9 @@
       <c r="R93" s="15"/>
       <c r="S93" s="17"/>
     </row>
-    <row r="94" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="44" thickBot="1">
       <c r="A94" s="14"/>
-      <c r="G94" s="37"/>
+      <c r="G94" s="26"/>
       <c r="H94" s="14">
         <v>14</v>
       </c>
@@ -4122,26 +4158,26 @@
       <c r="R94" s="15"/>
       <c r="S94" s="17"/>
     </row>
-    <row r="95" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="42">
-        <v>1</v>
-      </c>
-      <c r="B95" s="43">
-        <v>1</v>
-      </c>
-      <c r="C95" s="44">
-        <v>1</v>
-      </c>
-      <c r="D95" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E95" s="44" t="s">
+    <row r="95" spans="1:19" ht="44" thickBot="1">
+      <c r="A95" s="31">
+        <v>1</v>
+      </c>
+      <c r="B95" s="32">
+        <v>1</v>
+      </c>
+      <c r="C95" s="33">
+        <v>1</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E95" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F95" s="45" t="s">
+      <c r="F95" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G95" s="36"/>
+      <c r="G95" s="25"/>
       <c r="H95" s="14">
         <v>14</v>
       </c>
@@ -4170,26 +4206,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="51">
+    <row r="96" spans="1:19" ht="15" thickBot="1">
+      <c r="A96" s="40">
         <v>4</v>
       </c>
-      <c r="B96" s="57">
+      <c r="B96" s="45">
         <v>2</v>
       </c>
-      <c r="C96" s="53">
-        <v>1</v>
-      </c>
-      <c r="D96" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="E96" s="54" t="s">
+      <c r="C96" s="41">
+        <v>1</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E96" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="F96" s="58" t="s">
+      <c r="F96" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="G96" s="40">
+      <c r="G96" s="29">
         <v>12140</v>
       </c>
       <c r="H96" s="14"/>
@@ -4202,11 +4238,11 @@
       <c r="R96" s="15"/>
       <c r="S96" s="17"/>
     </row>
-    <row r="97" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="15" thickBot="1">
       <c r="A97" s="1">
         <v>5</v>
       </c>
-      <c r="B97" s="59">
+      <c r="B97" s="47">
         <v>1</v>
       </c>
       <c r="C97" s="2">
@@ -4218,10 +4254,10 @@
       <c r="E97" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F97" s="50" t="s">
+      <c r="F97" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G97" s="38"/>
+      <c r="G97" s="27"/>
       <c r="H97" s="14"/>
       <c r="I97" s="15"/>
       <c r="J97" s="15"/>
@@ -4232,7 +4268,7 @@
       <c r="R97" s="15"/>
       <c r="S97" s="17"/>
     </row>
-    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="43.5">
       <c r="A98" s="14"/>
       <c r="G98" s="17"/>
       <c r="H98" s="14">
@@ -4253,7 +4289,7 @@
       <c r="R98" s="15"/>
       <c r="S98" s="17"/>
     </row>
-    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="43.5">
       <c r="A99" s="14"/>
       <c r="G99" s="17"/>
       <c r="H99" s="14">
@@ -4274,7 +4310,7 @@
       <c r="R99" s="15"/>
       <c r="S99" s="17"/>
     </row>
-    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="43.5">
       <c r="A100" s="14"/>
       <c r="G100" s="17"/>
       <c r="H100" s="14">
@@ -4295,7 +4331,7 @@
       <c r="R100" s="15"/>
       <c r="S100" s="17"/>
     </row>
-    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="43.5">
       <c r="A101" s="14"/>
       <c r="G101" s="17"/>
       <c r="H101" s="14">
@@ -4316,7 +4352,7 @@
       <c r="R101" s="15"/>
       <c r="S101" s="17"/>
     </row>
-    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="43.5">
       <c r="A102" s="14"/>
       <c r="G102" s="17"/>
       <c r="H102" s="14">
@@ -4337,7 +4373,7 @@
       <c r="R102" s="15"/>
       <c r="S102" s="17"/>
     </row>
-    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="43.5">
       <c r="A103" s="14"/>
       <c r="G103" s="17"/>
       <c r="H103" s="14">
@@ -4358,7 +4394,7 @@
       <c r="R103" s="15"/>
       <c r="S103" s="17"/>
     </row>
-    <row r="104" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="43.5">
       <c r="A104" s="14"/>
       <c r="G104" s="17"/>
       <c r="H104" s="14">
@@ -4379,7 +4415,7 @@
       <c r="R104" s="15"/>
       <c r="S104" s="17"/>
     </row>
-    <row r="105" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="43.5">
       <c r="A105" s="14"/>
       <c r="G105" s="17"/>
       <c r="H105" s="14">
@@ -4400,7 +4436,7 @@
       <c r="R105" s="15"/>
       <c r="S105" s="17"/>
     </row>
-    <row r="106" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="43.5">
       <c r="A106" s="14"/>
       <c r="G106" s="17"/>
       <c r="H106" s="14">
@@ -4421,7 +4457,7 @@
       <c r="R106" s="15"/>
       <c r="S106" s="17"/>
     </row>
-    <row r="107" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="44" thickBot="1">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
